--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgalpo\Documents\BarangaySystemManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgalpo\Documents\BarangayManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0A2A6-03F6-4CA4-B5B0-3965AE744535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99B678-26DB-44CE-898C-3FEA33692472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
   </bookViews>
@@ -33,6 +33,227 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="72">
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>role_description</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>position_name</t>
+  </si>
+  <si>
+    <t>position_description</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>resident_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>resident_unique_id</t>
+  </si>
+  <si>
+    <t>resident</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>fk_resident</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>prefix_id</t>
+  </si>
+  <si>
+    <t>prefix_name</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>suffix_id</t>
+  </si>
+  <si>
+    <t>suffix_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>gender_id</t>
+  </si>
+  <si>
+    <t>gender_name</t>
+  </si>
+  <si>
+    <t>fk_prefix</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>fk_suffix</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>fk_gender</t>
+  </si>
+  <si>
+    <t>other_gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>barangay</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>civil_status</t>
+  </si>
+  <si>
+    <t>civil_status_id</t>
+  </si>
+  <si>
+    <t>civil_status_name</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religion_id</t>
+  </si>
+  <si>
+    <t>religion_name</t>
+  </si>
+  <si>
+    <t>fk_civil_status</t>
+  </si>
+  <si>
+    <t>fk_religion</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>birthday_id</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>birthplace</t>
+  </si>
+  <si>
+    <t>birthplace_id</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,14 +625,1414 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01506209-6BA2-4ACD-8CA0-0FBA76759ADD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>50</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="T15" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T19" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" t="s">
+        <v>23</v>
+      </c>
+      <c r="W20" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s">
+        <v>67</v>
+      </c>
+      <c r="U31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" t="s">
+        <v>23</v>
+      </c>
+      <c r="W32" t="s">
+        <v>42</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" t="s">
+        <v>23</v>
+      </c>
+      <c r="W33" t="s">
+        <v>42</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T34" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" t="s">
+        <v>11</v>
+      </c>
+      <c r="X34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T35" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" t="s">
+        <v>23</v>
+      </c>
+      <c r="W35" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>17</v>
+      </c>
+      <c r="T39" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" t="s">
+        <v>19</v>
+      </c>
+      <c r="V39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" t="s">
+        <v>71</v>
+      </c>
+      <c r="U40" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>5</v>
+      </c>
+      <c r="X40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" t="s">
+        <v>27</v>
+      </c>
+      <c r="W41" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" t="s">
+        <v>23</v>
+      </c>
+      <c r="W42" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" t="s">
+        <v>23</v>
+      </c>
+      <c r="W43" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" t="s">
+        <v>55</v>
+      </c>
+      <c r="U44" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" t="s">
+        <v>23</v>
+      </c>
+      <c r="W44" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
+        <v>22</v>
+      </c>
+      <c r="W45" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" t="s">
+        <v>12</v>
+      </c>
+      <c r="U46" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" t="s">
+        <v>23</v>
+      </c>
+      <c r="W46" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgalpo\Documents\BarangayManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE7F568-6CE9-4B38-A058-F8454CB60AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FFD5E-C37F-40F1-816E-F434CFF4442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="260">
   <si>
     <t>auto_increment</t>
   </si>
@@ -74,18 +74,9 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>position_id</t>
   </si>
   <si>
-    <t>position_name</t>
-  </si>
-  <si>
-    <t>position_description</t>
-  </si>
-  <si>
     <t>account</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>document</t>
   </si>
   <si>
-    <t>document_id</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -407,12 +395,6 @@
     <t>payment_status_id</t>
   </si>
   <si>
-    <t>resident_document</t>
-  </si>
-  <si>
-    <t>pk, fk_document</t>
-  </si>
-  <si>
     <t>document_status</t>
   </si>
   <si>
@@ -572,7 +554,268 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>not finished</t>
+    <t>announcement_type</t>
+  </si>
+  <si>
+    <t>announcement_status</t>
+  </si>
+  <si>
+    <t>feedback_type</t>
+  </si>
+  <si>
+    <t>pk, fk_feedback_type</t>
+  </si>
+  <si>
+    <t>feedback_title</t>
+  </si>
+  <si>
+    <t>feedback_description</t>
+  </si>
+  <si>
+    <t>requested_document</t>
+  </si>
+  <si>
+    <t>requested_document_id</t>
+  </si>
+  <si>
+    <t>fee_collection</t>
+  </si>
+  <si>
+    <t>fee_collection_id</t>
+  </si>
+  <si>
+    <t>resident_fee_collection</t>
+  </si>
+  <si>
+    <t>pk, fk_fee_collection</t>
+  </si>
+  <si>
+    <t>revenue_id</t>
+  </si>
+  <si>
+    <t>fk_resident</t>
+  </si>
+  <si>
+    <t>announcement_id</t>
+  </si>
+  <si>
+    <t>resident_announcement</t>
+  </si>
+  <si>
+    <t>association_announcement</t>
+  </si>
+  <si>
+    <t>organizer_resident_unique_id</t>
+  </si>
+  <si>
+    <t>if announcement needed members(events, meetings, etc.)</t>
+  </si>
+  <si>
+    <t>if announcement needed organizers(events, meetings, etc.)</t>
+  </si>
+  <si>
+    <t>if announcement needed associations(events, meetings, etc.)</t>
+  </si>
+  <si>
+    <t>expense_type</t>
+  </si>
+  <si>
+    <t>expense_type_id</t>
+  </si>
+  <si>
+    <t>expense_type_name</t>
+  </si>
+  <si>
+    <t>expense_status</t>
+  </si>
+  <si>
+    <t>expense_status_id</t>
+  </si>
+  <si>
+    <t>expense_status_name</t>
+  </si>
+  <si>
+    <t>resident_expense</t>
+  </si>
+  <si>
+    <t>if expenses are for barangay associations</t>
+  </si>
+  <si>
+    <t>barangay_position</t>
+  </si>
+  <si>
+    <t>barangay_position_id</t>
+  </si>
+  <si>
+    <t>barangay_position_name</t>
+  </si>
+  <si>
+    <t>barangay_position_description</t>
+  </si>
+  <si>
+    <t>association_position_id</t>
+  </si>
+  <si>
+    <t>association_position</t>
+  </si>
+  <si>
+    <t>association_position_name</t>
+  </si>
+  <si>
+    <t>association_position_description</t>
+  </si>
+  <si>
+    <t>vaccination_type</t>
+  </si>
+  <si>
+    <t>vaccination_type_id</t>
+  </si>
+  <si>
+    <t>vaccination_type_name</t>
+  </si>
+  <si>
+    <t>vaccination_type_description</t>
+  </si>
+  <si>
+    <t>vaccination_status</t>
+  </si>
+  <si>
+    <t>vaccination_status_id</t>
+  </si>
+  <si>
+    <t>vaccination_status_name</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>vaccination_id</t>
+  </si>
+  <si>
+    <t>medical_aid_type</t>
+  </si>
+  <si>
+    <t>medical_aid_type_id</t>
+  </si>
+  <si>
+    <t>medical_aid_type_name</t>
+  </si>
+  <si>
+    <t>medical_aid_type_description</t>
+  </si>
+  <si>
+    <t>medical_aid_status</t>
+  </si>
+  <si>
+    <t>medical_aid_status_id</t>
+  </si>
+  <si>
+    <t>medical_aid_status_name</t>
+  </si>
+  <si>
+    <t>medical_aid</t>
+  </si>
+  <si>
+    <t>medical_aid_id</t>
+  </si>
+  <si>
+    <t>medical_mission</t>
+  </si>
+  <si>
+    <t>medical_mission_id</t>
+  </si>
+  <si>
+    <t>medical_mission_name</t>
+  </si>
+  <si>
+    <t>medical_mission_description</t>
+  </si>
+  <si>
+    <t>medical_mission_date</t>
+  </si>
+  <si>
+    <t>resident_medical_mission</t>
+  </si>
+  <si>
+    <t>if medical mission needs members</t>
+  </si>
+  <si>
+    <t>if medical mission needs association</t>
+  </si>
+  <si>
+    <t>request_document_revenue</t>
+  </si>
+  <si>
+    <t>pk, fk_revenue</t>
+  </si>
+  <si>
+    <t>request_document_id</t>
+  </si>
+  <si>
+    <t>fee_collection_revenue</t>
+  </si>
+  <si>
+    <t>assistance_program_type</t>
+  </si>
+  <si>
+    <t>assistancce_program_type_id</t>
+  </si>
+  <si>
+    <t>assistancce_program_type_name</t>
+  </si>
+  <si>
+    <t>assistancce_program_type_description</t>
+  </si>
+  <si>
+    <t>assistancce_program_status</t>
+  </si>
+  <si>
+    <t>assistancce_program_status_id</t>
+  </si>
+  <si>
+    <t>assistancce_program_status_name</t>
+  </si>
+  <si>
+    <t>fee_collection_type</t>
+  </si>
+  <si>
+    <t>fee_collection_status</t>
+  </si>
+  <si>
+    <t>fee_collection_type_id</t>
+  </si>
+  <si>
+    <t>fee_collection_type_name</t>
+  </si>
+  <si>
+    <t>fee_collection_type_description</t>
+  </si>
+  <si>
+    <t>fee_collection_status_id</t>
+  </si>
+  <si>
+    <t>fee_collection_status_name</t>
+  </si>
+  <si>
+    <t>fee_collection_type_amount</t>
+  </si>
+  <si>
+    <t>assistancce_program_type_amount</t>
+  </si>
+  <si>
+    <t>assistance_program</t>
+  </si>
+  <si>
+    <t>assistance_program_id</t>
+  </si>
+  <si>
+    <t>assistance_program_status</t>
+  </si>
+  <si>
+    <t>assistance_program_revenue</t>
+  </si>
+  <si>
+    <t>zx</t>
   </si>
 </sst>
 </file>
@@ -679,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -695,10 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -707,6 +947,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01506209-6BA2-4ACD-8CA0-0FBA76759ADD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:X165"/>
+  <dimension ref="B1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,47 +1311,47 @@
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="K2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="B2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="T2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -1114,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>2</v>
@@ -1129,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>2</v>
@@ -1149,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1161,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>0</v>
@@ -1176,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>0</v>
@@ -1199,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -1208,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>7</v>
@@ -1223,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1246,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -1258,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>4</v>
@@ -1270,13 +1516,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>7</v>
@@ -1293,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -1302,13 +1548,13 @@
         <v>5</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>4</v>
@@ -1317,13 +1563,13 @@
         <v>2</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>7</v>
@@ -1340,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -1349,13 +1595,13 @@
         <v>5</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -1370,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>10</v>
@@ -1381,13 +1627,13 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
       <c r="K9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -1402,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>10</v>
@@ -1413,16 +1659,16 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>7</v>
@@ -1432,21 +1678,21 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="K11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>7</v>
@@ -1454,19 +1700,19 @@
       <c r="O11" s="3">
         <v>50</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>96</v>
+      <c r="T11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
@@ -1475,13 +1721,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>7</v>
@@ -1489,20 +1735,20 @@
       <c r="O12" s="3">
         <v>50</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="T12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
@@ -1514,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>4</v>
@@ -1529,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>2</v>
@@ -1546,13 +1792,13 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -1561,13 +1807,13 @@
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>7</v>
@@ -1576,10 +1822,10 @@
         <v>50</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>0</v>
@@ -1593,13 +1839,13 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -1608,28 +1854,28 @@
         <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O15" s="3">
         <v>2</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>7</v>
@@ -1646,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -1655,13 +1901,13 @@
         <v>5</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>4</v>
@@ -1670,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>7</v>
@@ -1693,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -1702,13 +1948,13 @@
         <v>5</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>7</v>
@@ -1718,15 +1964,14 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="K18" s="7"/>
       <c r="T18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>7</v>
@@ -1737,23 +1982,23 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
       <c r="T19" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>7</v>
@@ -1763,21 +2008,21 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="K20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>2</v>
@@ -1786,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>7</v>
@@ -1803,13 +2048,13 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>2</v>
@@ -1818,31 +2063,31 @@
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="O21" s="3">
+        <v>10</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X21" s="3">
         <v>10</v>
@@ -1850,10 +2095,10 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
@@ -1865,13 +2110,13 @@
         <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1886,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
@@ -1897,13 +2142,13 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -1918,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>10</v>
@@ -1933,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>10</v>
@@ -1950,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
@@ -1965,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>10</v>
@@ -1982,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
@@ -1990,39 +2235,38 @@
       <c r="F25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="7" t="s">
-        <v>89</v>
+      <c r="T25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="K26" s="7"/>
-      <c r="T26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+      <c r="T26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
       <c r="T27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>2</v>
@@ -2032,21 +2276,21 @@
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="K28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>2</v>
@@ -2055,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V28" s="3" t="s">
         <v>0</v>
@@ -2072,13 +2316,13 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>2</v>
@@ -2087,28 +2331,28 @@
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="O29" s="3">
+        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>7</v>
@@ -2119,10 +2363,10 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>0</v>
@@ -2134,31 +2378,31 @@
         <v>5</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="O30" s="3">
+        <v>10</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X30" s="3" t="s">
         <v>5</v>
@@ -2166,13 +2410,13 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>7</v>
@@ -2181,13 +2425,13 @@
         <v>4</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>4</v>
@@ -2202,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>10</v>
@@ -2219,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
@@ -2234,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>10</v>
@@ -2249,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>10</v>
@@ -2266,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
@@ -2281,7 +2525,7 @@
         <v>5</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>10</v>
@@ -2291,46 +2535,45 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="T34" s="7" t="s">
-        <v>90</v>
+      <c r="T34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="T35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="10"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="K36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
+      <c r="B36" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="K36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="10"/>
       <c r="T36" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>2</v>
@@ -2341,13 +2584,13 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>2</v>
@@ -2356,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>2</v>
@@ -2371,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V37" s="3" t="s">
         <v>0</v>
@@ -2388,10 +2631,10 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>0</v>
@@ -2403,28 +2646,28 @@
         <v>5</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="O38" s="3">
+        <v>10</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>7</v>
@@ -2435,13 +2678,13 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>7</v>
@@ -2450,13 +2693,13 @@
         <v>17</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>4</v>
@@ -2465,13 +2708,13 @@
         <v>5</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>7</v>
@@ -2488,7 +2731,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -2503,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>10</v>
@@ -2512,13 +2755,13 @@
         <v>5</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>7</v>
@@ -2535,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
@@ -2550,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
@@ -2559,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>7</v>
@@ -2582,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>10</v>
@@ -2593,9 +2836,8 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43" s="7"/>
+        <v>82</v>
+      </c>
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>10</v>
@@ -2613,30 +2855,30 @@
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="K44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
+      <c r="B44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="K44" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -2645,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>2</v>
@@ -2659,16 +2901,16 @@
       <c r="O45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T45" s="7" t="s">
-        <v>93</v>
+      <c r="T45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>0</v>
@@ -2680,37 +2922,37 @@
         <v>5</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="O46" s="3">
+        <v>10</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="10"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>7</v>
@@ -2719,28 +2961,28 @@
         <v>7</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U47" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>2</v>
@@ -2757,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
@@ -2766,13 +3008,13 @@
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2781,10 +3023,10 @@
         <v>5</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>0</v>
@@ -2804,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -2816,10 +3058,10 @@
         <v>118</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
@@ -2828,13 +3070,13 @@
         <v>5</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>7</v>
@@ -2845,31 +3087,31 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.15">
       <c r="K50" s="3" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X50" s="3" t="s">
         <v>5</v>
@@ -2877,16 +3119,16 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>10</v>
@@ -2895,44 +3137,29 @@
         <v>5</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X51" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
       <c r="T52" s="3" t="s">
         <v>9</v>
       </c>
@@ -2940,7 +3167,7 @@
         <v>5</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>10</v>
@@ -2951,13 +3178,13 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
@@ -2972,7 +3199,7 @@
         <v>5</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>10</v>
@@ -2983,10 +3210,10 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>0</v>
@@ -2997,16 +3224,23 @@
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="K54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>7</v>
@@ -3014,15 +3248,23 @@
       <c r="F55" s="3">
         <v>50</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="11"/>
-      <c r="T55" s="7" t="s">
-        <v>94</v>
+      <c r="K55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.15">
@@ -3033,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
@@ -3041,28 +3283,28 @@
       <c r="F56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="6"/>
+      <c r="K56" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="10"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
@@ -3072,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
@@ -3081,28 +3323,28 @@
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U57" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>2</v>
@@ -3113,25 +3355,25 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.15">
       <c r="K58" s="3" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>0</v>
@@ -3145,31 +3387,16 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>7</v>
@@ -3179,39 +3406,24 @@
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
       <c r="T60" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>5</v>
@@ -3219,13 +3431,13 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>2</v>
@@ -3234,16 +3446,16 @@
         <v>1</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X61" s="3" t="s">
         <v>5</v>
@@ -3251,10 +3463,10 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>0</v>
@@ -3272,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>10</v>
@@ -3283,13 +3495,13 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>7</v>
@@ -3297,13 +3509,13 @@
       <c r="F63" s="3">
         <v>50</v>
       </c>
-      <c r="K63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="6"/>
+      <c r="K63" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="10"/>
       <c r="T63" s="3" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W63" s="3" t="s">
         <v>10</v>
@@ -3328,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>10</v>
@@ -3337,13 +3549,13 @@
         <v>5</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>2</v>
@@ -3352,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
@@ -3360,7 +3572,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>10</v>
@@ -3369,74 +3581,96 @@
         <v>5</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O65" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" s="3">
+        <v>10</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K66" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="U67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B68" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="K68" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>7</v>
@@ -3444,16 +3678,31 @@
       <c r="O68" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>2</v>
@@ -3462,13 +3711,13 @@
         <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>4</v>
@@ -3476,13 +3725,28 @@
       <c r="O69" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T69" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X69" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>0</v>
@@ -3494,13 +3758,13 @@
         <v>5</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>7</v>
@@ -3508,16 +3772,31 @@
       <c r="O70" s="3">
         <v>255</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>7</v>
@@ -3532,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>10</v>
@@ -3540,8 +3819,23 @@
       <c r="O71" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>9</v>
       </c>
@@ -3549,7 +3843,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
@@ -3564,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
@@ -3572,8 +3866,23 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X72" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>11</v>
       </c>
@@ -3581,7 +3890,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>10</v>
@@ -3589,35 +3898,85 @@
       <c r="F73" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X73" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="10"/>
+      <c r="T75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B76" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
       <c r="K76" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>2</v>
@@ -3625,16 +3984,31 @@
       <c r="O76" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>2</v>
@@ -3643,27 +4017,42 @@
         <v>1</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="O77" s="3">
+        <v>10</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>0</v>
@@ -3675,13 +4064,13 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>4</v>
@@ -3690,15 +4079,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>7</v>
@@ -3707,22 +4096,22 @@
         <v>50</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>9</v>
       </c>
@@ -3730,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>10</v>
@@ -3739,22 +4128,29 @@
         <v>5</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O80" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="10"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
@@ -3762,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
@@ -3770,92 +4166,114 @@
       <c r="F81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O81" s="3">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B83" t="s">
-        <v>140</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="K84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="T81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K82" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K83" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="10"/>
+      <c r="T83" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X83" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B84" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="K84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X84" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>2</v>
@@ -3864,27 +4282,42 @@
         <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O85" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="O85" s="3">
+        <v>10</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>0</v>
@@ -3895,52 +4328,132 @@
       <c r="F86" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K86" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X86" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X87" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="3">
-        <v>6</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="6"/>
-      <c r="P88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
@@ -3948,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
@@ -3956,23 +4469,26 @@
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="K89" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>11</v>
       </c>
@@ -3980,7 +4496,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>10</v>
@@ -3988,92 +4504,106 @@
       <c r="F90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M90" s="3" t="s">
+      <c r="K90" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K91" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N90" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="K91" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="L91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T92" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="10"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B93" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="K93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T93" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M92" s="3" t="s">
+      <c r="U93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B94" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="K93" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O93" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B94" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>2</v>
@@ -4082,27 +4612,42 @@
         <v>1</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O94" s="3">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B95" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>0</v>
@@ -4114,30 +4659,45 @@
         <v>5</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="T95" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X95" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>7</v>
@@ -4145,358 +4705,838 @@
       <c r="F96" s="3">
         <v>50</v>
       </c>
-      <c r="K96" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="T96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="U96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3">
+        <v>6</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U97" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X97" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6"/>
+      <c r="T98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B98" s="3" t="s">
+      <c r="U98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+      <c r="U99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X99" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K100" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O100" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="K102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O102" s="3">
+        <v>50</v>
+      </c>
+      <c r="T102" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="10"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O103" s="3">
+        <v>255</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X104" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3">
+        <v>50</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="U105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U106" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X106" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U107" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X107" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K108" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X108" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="10"/>
+      <c r="T109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="K110" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T112" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="10"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B113" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>50</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="U114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X114" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="U115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X115" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="T116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="U116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X116" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B101" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B102" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="K117" s="7"/>
+      <c r="T117" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W117" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="K118" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="10"/>
+      <c r="T118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V118" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="W118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X118" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B103" s="3" t="s">
+      <c r="K119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X119" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B120" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B104" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B109" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B112" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B116" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B117" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B119" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O120" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B121" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
@@ -4504,598 +5544,2520 @@
       <c r="F121" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="K121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B122" s="3" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B123" s="3" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B125" s="3" t="s">
+      <c r="L123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="K124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
+      <c r="L124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B126" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="K126" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="10"/>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B128" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B129" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3">
+        <v>50</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M129" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O129" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B134" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B136" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K136" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="10"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B137" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="3">
+        <v>50</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="10"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B145" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="K145" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B146" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B147" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" s="3">
+        <v>50</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="10"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B153" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="6"/>
+      <c r="K153" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B154" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B155" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B156" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="3">
+        <v>50</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>153</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="10"/>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B161" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="6"/>
+      <c r="K161" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B163" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B164" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="3">
+        <v>50</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B169" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="6"/>
+      <c r="J169" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B170" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B171" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C129" s="2" t="s">
+      <c r="C171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B172" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B177" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B178" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B130" s="3" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B179" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B180" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B184" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B185" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B186" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B187" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B188" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="3" t="s">
+      <c r="D188" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B189" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B190" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B191" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B131" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="E198" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B132" s="3" t="s">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B200" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B201" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B202" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B133" s="3" t="s">
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B203" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B136" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B137" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C137" s="2" t="s">
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B205" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B207" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B208" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="E209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B138" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="3" t="s">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B214" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B139" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="E214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B215" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B216" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B217" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B218" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B219" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B224" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B225" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B226" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B140" s="3" t="s">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B228" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B141" s="3" t="s">
+      <c r="C229" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B230" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B145" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C145" s="2" t="s">
+      <c r="C230" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B233" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B234" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B235" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B236" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="E237" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B241" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B242" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F242" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B146" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="3" t="s">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B243" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B147" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="3">
+      <c r="E243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B244" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B148" s="3" t="s">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B245" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B246" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B149" s="3" t="s">
+      <c r="C246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B247" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B151" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B152" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B153" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C153" s="2" t="s">
+      <c r="C247" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B250" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B251" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B252" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B253" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F253" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="E254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B258" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B259" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F259" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B154" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="3" t="s">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B260" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B155" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="3">
+      <c r="E260" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B261" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F261" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B156" s="3" t="s">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B262" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B263" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F263" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B264" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B157" s="3" t="s">
+      <c r="C264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B265" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C161" s="2" t="s">
+      <c r="C265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B267" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B268" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B269" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B270" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B271" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="2" t="s">
+      <c r="E271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B274" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B275" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F275" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B162" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="3" t="s">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B276" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B163" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B164" s="3" t="s">
+      <c r="E276" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B277" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B278" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B279" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B165" s="3" t="s">
+      <c r="C279" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B280" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="3" t="s">
+      <c r="C280" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="K88:O88"/>
+  <mergeCells count="39">
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="K152:O152"/>
+    <mergeCell ref="K160:O160"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B52:F52"/>
     <mergeCell ref="K27:O27"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B136:F136"/>
     <mergeCell ref="K63:O63"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B109:F109"/>
     <mergeCell ref="B60:F60"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="K127:O127"/>
+    <mergeCell ref="K136:O136"/>
     <mergeCell ref="T46:X46"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="B2:F2"/>
@@ -5104,6 +8066,24 @@
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B44:F44"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="K118:O118"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="T92:X92"/>
+    <mergeCell ref="T102:X102"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="K83:O83"/>
+    <mergeCell ref="T80:X80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgalpo\Documents\BarangayManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FFD5E-C37F-40F1-816E-F434CFF4442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74018A29-DADD-4BA8-B34D-6AA88B5ED5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
   </bookViews>
   <sheets>
-    <sheet name="ERD" sheetId="1" r:id="rId1"/>
+    <sheet name="ERD v1" sheetId="1" r:id="rId1"/>
+    <sheet name="ERD v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="380">
   <si>
     <t>auto_increment</t>
   </si>
@@ -815,7 +816,367 @@
     <t>assistance_program_revenue</t>
   </si>
   <si>
-    <t>zx</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>BarangayPosition</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>CivilStatus</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ResidentRole</t>
+  </si>
+  <si>
+    <t>ResidentBarangayPosition</t>
+  </si>
+  <si>
+    <t>pk, fk_Resident</t>
+  </si>
+  <si>
+    <t>pk, fk_Resident, unique</t>
+  </si>
+  <si>
+    <t>ResidentPrefix</t>
+  </si>
+  <si>
+    <t>ResidentSuffix</t>
+  </si>
+  <si>
+    <t>ResidentGender</t>
+  </si>
+  <si>
+    <t>ResidentCivilStatus</t>
+  </si>
+  <si>
+    <t>ResidentReligion</t>
+  </si>
+  <si>
+    <t>ResidentCategory</t>
+  </si>
+  <si>
+    <t>pk, fk_Category</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>ResidentAccount</t>
+  </si>
+  <si>
+    <t>fk_Religion, unique</t>
+  </si>
+  <si>
+    <t>fk_CivilStatus, unique</t>
+  </si>
+  <si>
+    <t>fk_Gender, unique</t>
+  </si>
+  <si>
+    <t>fk_Suffix, unique</t>
+  </si>
+  <si>
+    <t>fk_Prefix, unique</t>
+  </si>
+  <si>
+    <t>fk_BarangayPosition, unique</t>
+  </si>
+  <si>
+    <t>fk_Role, unique</t>
+  </si>
+  <si>
+    <t>pk, fk_Account, unique</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>pk, fk_Address, unique</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>birthdate_id</t>
+  </si>
+  <si>
+    <t>ResidentAddress</t>
+  </si>
+  <si>
+    <t>ResidentBirthdate</t>
+  </si>
+  <si>
+    <t>pk, fk_Birthdate, unique</t>
+  </si>
+  <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
+    <t>ResidentBirthplace</t>
+  </si>
+  <si>
+    <t>pk, fk_Birthplace, unique</t>
+  </si>
+  <si>
+    <t>BarangayOfficialTermDate</t>
+  </si>
+  <si>
+    <t>botd_id</t>
+  </si>
+  <si>
+    <t>ResidentBarangayOfficialTermDate</t>
+  </si>
+  <si>
+    <t>pk, fk_BarangayOfficialTermDate, unique</t>
+  </si>
+  <si>
+    <t>DeathDate</t>
+  </si>
+  <si>
+    <t>ResidentDeathDate</t>
+  </si>
+  <si>
+    <t>pk, fk_DeathDate, unique</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>association_description</t>
+  </si>
+  <si>
+    <t>ResidentAssociation</t>
+  </si>
+  <si>
+    <t>pk, fk_Association</t>
+  </si>
+  <si>
+    <t>AssociationPosition</t>
+  </si>
+  <si>
+    <t>ResidentAssociationPosition</t>
+  </si>
+  <si>
+    <t>pk, fk_AssociationPosition</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>document_type_description</t>
+  </si>
+  <si>
+    <t>pk, fk_DocumentType</t>
+  </si>
+  <si>
+    <t>DocumentStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_DocumentStatus</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>ResidentDocument</t>
+  </si>
+  <si>
+    <t>ResidentDocumentDocumentType</t>
+  </si>
+  <si>
+    <t>ResidentDocumentDocumentStatus</t>
+  </si>
+  <si>
+    <t>ResidentDocumentPaymentType</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_PaymentType</t>
+  </si>
+  <si>
+    <t>ResidentDocumentPaymentStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_PaymentStatus</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>AnnouncementType</t>
+  </si>
+  <si>
+    <t>PosteeAnnouncement</t>
+  </si>
+  <si>
+    <t>pk, fk_Document, unique</t>
+  </si>
+  <si>
+    <t>pk, fk_Announcement</t>
+  </si>
+  <si>
+    <t>AnnouncementAnnouncementType</t>
+  </si>
+  <si>
+    <t>pk, fk_AnnouncementType</t>
+  </si>
+  <si>
+    <t>pk, fk_Announcement, unique</t>
+  </si>
+  <si>
+    <t>RelationshipType</t>
+  </si>
+  <si>
+    <t>relationship_type_id</t>
+  </si>
+  <si>
+    <t>relationship_type_name</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>pk, fk_Relationship</t>
+  </si>
+  <si>
+    <t>RelationshipRelationshipType</t>
+  </si>
+  <si>
+    <t>pk, fk_RelationshipType</t>
+  </si>
+  <si>
+    <t>AnnouncementDate</t>
+  </si>
+  <si>
+    <t>announcement_date_id</t>
+  </si>
+  <si>
+    <t>AnnouncementOrganizer</t>
+  </si>
+  <si>
+    <t>AnnouncementMember</t>
+  </si>
+  <si>
+    <t>AnnouncementAssociation</t>
+  </si>
+  <si>
+    <t>AnnouncementAnnouncementDate</t>
+  </si>
+  <si>
+    <t>pk, fk_AnnouncementDate</t>
+  </si>
+  <si>
+    <t>ResidentOriginRelationship</t>
+  </si>
+  <si>
+    <t>ResidentToRelationship</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>AnnouncementStatus</t>
+  </si>
+  <si>
+    <t>AnnouncementAnnouncementStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_AnnouncementStatus</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>report_id</t>
+  </si>
+  <si>
+    <t>report_title</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>ReportStatus</t>
+  </si>
+  <si>
+    <t>ResidentReport</t>
+  </si>
+  <si>
+    <t>pk, fk_Report, unique</t>
+  </si>
+  <si>
+    <t>ReportReportType</t>
+  </si>
+  <si>
+    <t>pk, fk_ReportType</t>
+  </si>
+  <si>
+    <t>ReportReportStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_ReportStatus</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>FeedbackType</t>
+  </si>
+  <si>
+    <t>FeedbackStatus</t>
+  </si>
+  <si>
+    <t>feedback_id</t>
+  </si>
+  <si>
+    <t>feedback_status_id</t>
+  </si>
+  <si>
+    <t>feedback_status_name</t>
+  </si>
+  <si>
+    <t>ResidentFeedback</t>
+  </si>
+  <si>
+    <t>FeedbackFeedbackType</t>
+  </si>
+  <si>
+    <t>FeedbackFeedbackStatus</t>
+  </si>
+  <si>
+    <t>pk, fk_Feedback, unique</t>
+  </si>
+  <si>
+    <t>pk, fk_FeedbackType</t>
+  </si>
+  <si>
+    <t>pk, fk_FeedbackStatus</t>
   </si>
 </sst>
 </file>
@@ -858,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -918,11 +1279,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -954,6 +1326,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,10 +1663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01506209-6BA2-4ACD-8CA0-0FBA76759ADD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:X280"/>
+  <dimension ref="B1:Y280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1309,7 +1683,7 @@
     <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -1320,7 +1694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>76</v>
       </c>
@@ -1328,6 +1702,9 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
       <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
@@ -1335,6 +1712,9 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
+      <c r="P2" t="s">
+        <v>353</v>
+      </c>
       <c r="T2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1342,8 +1722,11 @@
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1961,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1625,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1657,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>78</v>
       </c>
@@ -1677,7 +2060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
         <v>201</v>
       </c>
@@ -1704,7 +2087,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1719,6 +2102,9 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>41</v>
@@ -1742,8 +2128,11 @@
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
@@ -1790,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
@@ -1837,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>204</v>
       </c>
@@ -1884,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +2352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
       <c r="T18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +2369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -1991,6 +2380,9 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
+      <c r="P19" t="s">
+        <v>353</v>
+      </c>
       <c r="T19" s="3" t="s">
         <v>49</v>
       </c>
@@ -2007,7 +2399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
@@ -2015,6 +2407,9 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
+      <c r="G20" t="s">
+        <v>353</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -2140,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
@@ -2187,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +2634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
       <c r="T26" s="11" t="s">
         <v>60</v>
       </c>
@@ -2247,8 +2642,11 @@
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>80</v>
       </c>
@@ -2259,6 +2657,9 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="10"/>
+      <c r="P27" t="s">
+        <v>353</v>
+      </c>
       <c r="T27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
@@ -2283,6 +2684,9 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
+      <c r="G28" t="s">
+        <v>353</v>
+      </c>
       <c r="K28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2314,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2361,7 +2765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
@@ -2455,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
@@ -2502,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
@@ -2534,12 +2938,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
       <c r="T34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -2550,8 +2954,11 @@
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
         <v>33</v>
       </c>
@@ -2559,6 +2966,9 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
+      <c r="G36" t="s">
+        <v>353</v>
+      </c>
       <c r="K36" s="8" t="s">
         <v>106</v>
       </c>
@@ -2566,6 +2976,9 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="10"/>
+      <c r="P36" t="s">
+        <v>353</v>
+      </c>
       <c r="T36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2582,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
@@ -2676,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2723,7 +3136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +3183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2817,7 +3230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
       <c r="T42" s="3" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>82</v>
       </c>
@@ -2854,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
@@ -2862,6 +3275,9 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
+      <c r="G44" t="s">
+        <v>353</v>
+      </c>
       <c r="K44" s="8" t="s">
         <v>182</v>
       </c>
@@ -2870,7 +3286,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>26</v>
       </c>
@@ -2905,7 +3321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>53</v>
       </c>
@@ -2944,7 +3360,7 @@
       <c r="W46" s="9"/>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -2991,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
@@ -3038,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K50" s="3" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>83</v>
       </c>
@@ -3152,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
         <v>55</v>
       </c>
@@ -3160,6 +3576,9 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
+      <c r="G52" t="s">
+        <v>353</v>
+      </c>
       <c r="T52" s="3" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -3208,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>56</v>
       </c>
@@ -3232,7 +3651,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>57</v>
       </c>
@@ -3267,7 +3686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>9</v>
       </c>
@@ -3305,8 +3724,11 @@
       <c r="V56" s="9"/>
       <c r="W56" s="9"/>
       <c r="X56" s="10"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3385,7 +3807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>84</v>
       </c>
@@ -3405,7 +3827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
         <v>68</v>
       </c>
@@ -3413,6 +3835,9 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
+      <c r="G60" t="s">
+        <v>353</v>
+      </c>
       <c r="T60" s="3" t="s">
         <v>66</v>
       </c>
@@ -3429,7 +3854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
         <v>26</v>
       </c>
@@ -3461,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
@@ -3493,7 +3918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
@@ -3516,6 +3941,9 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="10"/>
+      <c r="P63" t="s">
+        <v>353</v>
+      </c>
       <c r="T63" s="3" t="s">
         <v>11</v>
       </c>
@@ -3532,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>9</v>
       </c>
@@ -3564,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>11</v>
       </c>
@@ -3596,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K66" s="3" t="s">
         <v>149</v>
       </c>
@@ -3619,8 +4047,11 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="10"/>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="Y66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>94</v>
       </c>
@@ -3655,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
         <v>95</v>
       </c>
@@ -3663,6 +4094,9 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
+      <c r="G68" t="s">
+        <v>353</v>
+      </c>
       <c r="K68" s="3" t="s">
         <v>147</v>
       </c>
@@ -3694,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
         <v>26</v>
       </c>
@@ -3741,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>96</v>
       </c>
@@ -3788,7 +4222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>97</v>
       </c>
@@ -3835,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>9</v>
       </c>
@@ -3882,7 +4316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>11</v>
       </c>
@@ -3914,7 +4348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.15">
       <c r="K74" s="7" t="s">
         <v>190</v>
       </c>
@@ -3934,7 +4368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>101</v>
       </c>
@@ -3945,6 +4379,9 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="10"/>
+      <c r="P75" t="s">
+        <v>353</v>
+      </c>
       <c r="T75" s="3" t="s">
         <v>166</v>
       </c>
@@ -3961,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B76" s="11" t="s">
         <v>102</v>
       </c>
@@ -3969,6 +4406,9 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
+      <c r="G76" t="s">
+        <v>353</v>
+      </c>
       <c r="K76" s="2" t="s">
         <v>26</v>
       </c>
@@ -4000,7 +4440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -4047,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B78" s="3" t="s">
         <v>103</v>
       </c>
@@ -4079,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>104</v>
       </c>
@@ -4111,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>9</v>
       </c>
@@ -4210,6 +4650,9 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="10"/>
+      <c r="P83" t="s">
+        <v>353</v>
+      </c>
       <c r="T83" s="3" t="s">
         <v>194</v>
       </c>
@@ -4234,6 +4677,9 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
+      <c r="G84" t="s">
+        <v>353</v>
+      </c>
       <c r="K84" s="2" t="s">
         <v>26</v>
       </c>
@@ -4511,6 +4957,9 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="10"/>
+      <c r="P90" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.15">
       <c r="K91" s="2" t="s">
@@ -4564,6 +5013,9 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
+      <c r="G93" t="s">
+        <v>353</v>
+      </c>
       <c r="K93" s="3" t="s">
         <v>103</v>
       </c>
@@ -4776,6 +5228,9 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="6"/>
+      <c r="P98" t="s">
+        <v>353</v>
+      </c>
       <c r="T98" s="3" t="s">
         <v>9</v>
       </c>
@@ -4884,6 +5339,9 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
+      <c r="G102" t="s">
+        <v>353</v>
+      </c>
       <c r="K102" s="3" t="s">
         <v>176</v>
       </c>
@@ -5167,6 +5625,9 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
+      <c r="G110" t="s">
+        <v>353</v>
+      </c>
       <c r="K110" s="2" t="s">
         <v>26</v>
       </c>
@@ -5426,6 +5887,9 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
+      <c r="G118" t="s">
+        <v>353</v>
+      </c>
       <c r="K118" s="8" t="s">
         <v>106</v>
       </c>
@@ -5433,6 +5897,9 @@
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="10"/>
+      <c r="P118" t="s">
+        <v>353</v>
+      </c>
       <c r="T118" s="3" t="s">
         <v>9</v>
       </c>
@@ -6030,6 +6497,9 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
+      <c r="G145" t="s">
+        <v>353</v>
+      </c>
       <c r="K145" s="2" t="s">
         <v>26</v>
       </c>
@@ -6211,6 +6681,9 @@
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
+      <c r="G153" t="s">
+        <v>353</v>
+      </c>
       <c r="K153" s="2" t="s">
         <v>26</v>
       </c>
@@ -6392,6 +6865,9 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="6"/>
+      <c r="G161" t="s">
+        <v>353</v>
+      </c>
       <c r="K161" s="2" t="s">
         <v>26</v>
       </c>
@@ -6566,8 +7042,8 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="6"/>
-      <c r="J169" t="s">
-        <v>259</v>
+      <c r="G169" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.15">
@@ -6660,7 +7136,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B177" s="4" t="s">
         <v>174</v>
       </c>
@@ -6668,8 +7144,11 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="6"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B178" s="2" t="s">
         <v>26</v>
       </c>
@@ -6686,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="3" t="s">
         <v>169</v>
       </c>
@@ -6703,7 +7182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="3" t="s">
         <v>170</v>
       </c>
@@ -6720,7 +7199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B181" s="3" t="s">
         <v>9</v>
       </c>
@@ -6737,7 +7216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B182" s="3" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +7233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B184" s="4" t="s">
         <v>178</v>
       </c>
@@ -6762,8 +7241,11 @@
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="6"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G184" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B185" s="2" t="s">
         <v>26</v>
       </c>
@@ -6780,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B186" s="3" t="s">
         <v>179</v>
       </c>
@@ -6797,7 +7279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B187" s="3" t="s">
         <v>24</v>
       </c>
@@ -6814,7 +7296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B188" s="3" t="s">
         <v>135</v>
       </c>
@@ -6831,7 +7313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B189" s="3" t="s">
         <v>111</v>
       </c>
@@ -6848,7 +7330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B190" s="3" t="s">
         <v>114</v>
       </c>
@@ -6865,7 +7347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B191" s="3" t="s">
         <v>118</v>
       </c>
@@ -6882,7 +7364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B192" s="3" t="s">
         <v>9</v>
       </c>
@@ -8045,19 +8527,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K144:O144"/>
-    <mergeCell ref="K152:O152"/>
-    <mergeCell ref="K160:O160"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="K127:O127"/>
-    <mergeCell ref="K136:O136"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="K118:O118"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="T92:X92"/>
+    <mergeCell ref="T102:X102"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="K83:O83"/>
+    <mergeCell ref="T80:X80"/>
     <mergeCell ref="T46:X46"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="B2:F2"/>
@@ -8071,19 +8552,6807 @@
     <mergeCell ref="T12:X12"/>
     <mergeCell ref="T26:X26"/>
     <mergeCell ref="T35:X35"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="K109:O109"/>
-    <mergeCell ref="K118:O118"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="T92:X92"/>
-    <mergeCell ref="T102:X102"/>
-    <mergeCell ref="T112:X112"/>
-    <mergeCell ref="B93:F93"/>
     <mergeCell ref="K44:O44"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="K90:O90"/>
-    <mergeCell ref="K83:O83"/>
-    <mergeCell ref="T80:X80"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="K152:O152"/>
+    <mergeCell ref="K160:O160"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="K127:O127"/>
+    <mergeCell ref="K136:O136"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1F2F3C-BAE1-4BEF-A672-DE77D2C2D3FA}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:V325"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I326" sqref="I326"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="K11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="K14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="K23" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>50</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="K32" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="K40" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="K48" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3">
+        <v>17</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="K56" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="K64" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3">
+        <v>50</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="K72" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O74" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3">
+        <v>50</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B80" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="K80" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="10"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O82" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3">
+        <v>50</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="3">
+        <v>255</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B89" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="K89" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="10"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B91" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O91" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3">
+        <v>6</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3">
+        <v>50</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>50</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B97" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B102" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="K102" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="10"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B104" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O104" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B110" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="K110" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O112" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>50</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3">
+        <v>50</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B115" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3">
+        <v>50</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B120" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="K120" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="10"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B122" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O122" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B123" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B124" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B129" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+      <c r="K129" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="10"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B131" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B132" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B133" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B138" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="K138" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="10"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B140" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O140" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B141" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" s="3">
+        <v>50</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B142" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3">
+        <v>255</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B147" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="K147" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="10"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B149" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O149" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B150" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="3">
+        <v>50</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B155" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
+      <c r="K155" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="10"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B157" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O158" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B163" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="K163" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B165" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B166" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3">
+        <v>50</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B167" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" s="3">
+        <v>255</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B168" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="3">
+        <v>6</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B173" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="K173" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B175" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B176" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" s="3">
+        <v>50</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B181" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="K181" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="6"/>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B182" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B183" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B184" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="3">
+        <v>50</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B189" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="K189" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B190" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B191" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B192" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3">
+        <v>50</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B197" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="10"/>
+      <c r="K197" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B199" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M199" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B200" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3">
+        <v>50</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O200" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B201" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="3">
+        <v>255</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B203" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B206" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="6"/>
+      <c r="K206" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B208" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B209" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="3">
+        <v>50</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B214" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="6"/>
+      <c r="K214" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B215" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B216" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B217" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3">
+        <v>50</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B222" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="6"/>
+      <c r="K222" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B223" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K223" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B224" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B225" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B226" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K230" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="6"/>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K231" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L231" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K232" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O233" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K238" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L238" s="5"/>
+      <c r="M238" s="5"/>
+      <c r="N238" s="5"/>
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K239" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O239" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K240" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O240" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O241" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K246" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
+      <c r="N246" s="5"/>
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K247" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L247" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O247" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K248" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K249" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B254" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="K254" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N255" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O255" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B256" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O257" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B262" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="K262" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+      <c r="N262" s="5"/>
+      <c r="O262" s="6"/>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B263" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N263" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O263" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B264" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B265" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" s="3">
+        <v>50</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N265" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B266" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K268" s="13"/>
+      <c r="L268" s="13"/>
+      <c r="M268" s="13"/>
+      <c r="N268" s="13"/>
+      <c r="O268" s="13"/>
+    </row>
+    <row r="269" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K269" s="13"/>
+      <c r="L269" s="13"/>
+      <c r="M269" s="13"/>
+      <c r="N269" s="13"/>
+      <c r="O269" s="13"/>
+    </row>
+    <row r="270" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K270" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K271" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M271" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O271" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K272" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K273" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O273" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K274" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="K275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B278" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="10"/>
+      <c r="K278" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="6"/>
+    </row>
+    <row r="279" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B279" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O279" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B280" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N280" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B281" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" s="3">
+        <v>50</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O281" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B282" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" s="3">
+        <v>255</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B284" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B287" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="6"/>
+      <c r="K287" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="L287" s="5"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="6"/>
+    </row>
+    <row r="288" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B288" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K288" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O288" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B289" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O289" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B290" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" s="3">
+        <v>50</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B291" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B292" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+    </row>
+    <row r="295" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B295" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="5"/>
+      <c r="F295" s="6"/>
+      <c r="K295" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="L295" s="5"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="6"/>
+    </row>
+    <row r="296" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B296" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K296" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L296" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M296" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N296" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O296" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B297" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B298" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F298" s="3">
+        <v>50</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N298" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O298" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B299" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N299" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O299" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N300" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O300" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B303" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="13"/>
+      <c r="J303" s="13"/>
+      <c r="K303" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="L303" s="5"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="6"/>
+    </row>
+    <row r="304" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B304" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G304" s="13"/>
+      <c r="H304" s="13"/>
+      <c r="I304" s="13"/>
+      <c r="J304" s="13"/>
+      <c r="K304" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L304" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O304" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B305" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" s="13"/>
+      <c r="H305" s="13"/>
+      <c r="I305" s="13"/>
+      <c r="J305" s="13"/>
+      <c r="K305" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O305" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B306" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" s="3">
+        <v>50</v>
+      </c>
+      <c r="G306" s="13"/>
+      <c r="H306" s="13"/>
+      <c r="I306" s="13"/>
+      <c r="J306" s="13"/>
+      <c r="K306" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M306" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O306" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B307" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" s="3">
+        <v>255</v>
+      </c>
+      <c r="G307" s="13"/>
+      <c r="H307" s="13"/>
+      <c r="I307" s="13"/>
+      <c r="J307" s="13"/>
+      <c r="K307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O307" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G308" s="13"/>
+      <c r="H308" s="13"/>
+      <c r="I308" s="13"/>
+      <c r="J308" s="13"/>
+      <c r="K308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O308" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B312" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="6"/>
+      <c r="K312" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L312" s="5"/>
+      <c r="M312" s="5"/>
+      <c r="N312" s="5"/>
+      <c r="O312" s="6"/>
+    </row>
+    <row r="313" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B313" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N313" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O313" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B314" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N314" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B315" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" s="3">
+        <v>50</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N315" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O315" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O317" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+    </row>
+    <row r="320" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B320" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="6"/>
+      <c r="K320" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L320" s="5"/>
+      <c r="M320" s="5"/>
+      <c r="N320" s="5"/>
+      <c r="O320" s="6"/>
+    </row>
+    <row r="321" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B321" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L321" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M321" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O321" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B322" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B323" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" s="3">
+        <v>50</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N323" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B324" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N325" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="K155:O155"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="K138:O138"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="K102:O102"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="K80:O80"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/ERD.xlsx
+++ b/documentation/ERD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgalpo\Documents\BarangayManagementSystem\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDC5C8-E297-4E4F-B5C2-EC9128B66CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846FFA63-A049-4BA2-B27F-E30C5B38BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5D6EDC0-E2F0-4D01-84F0-FC71D003CD96}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD v1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6380" uniqueCount="479">
   <si>
     <t>auto_increment</t>
   </si>
@@ -1463,6 +1463,18 @@
   </si>
   <si>
     <t>phone_number</t>
+  </si>
+  <si>
+    <t>Deathdate</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>fk_Resident</t>
+  </si>
+  <si>
+    <t>fk_Association</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1621,6 +1633,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1636,13 +1654,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6351,72 +6362,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D591E2A-8051-4A4B-BE31-3564203BB1BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20478751" y="4457700"/>
-          <a:ext cx="7181850" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6748,13 +6693,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14513,8 +14458,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14532,12 +14477,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16573500" y="938213"/>
-          <a:ext cx="3905250" cy="3781425"/>
+          <a:off x="16590065" y="950637"/>
+          <a:ext cx="3909392" cy="3663397"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 87317"/>
+            <a:gd name="adj1" fmla="val 87500"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -14567,13 +14512,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>524291</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>168550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>2487</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -21998,33 +21943,33 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="P2" t="s">
         <v>353</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
       <c r="Y2" t="s">
         <v>353</v>
       </c>
@@ -22364,13 +22309,13 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="K11" s="3" t="s">
         <v>40</v>
       </c>
@@ -22424,13 +22369,13 @@
       <c r="O12" s="3">
         <v>50</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
       <c r="Y12" t="s">
         <v>353</v>
       </c>
@@ -22676,13 +22621,13 @@
       <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
       <c r="P19" t="s">
         <v>353</v>
       </c>
@@ -22703,13 +22648,13 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" t="s">
         <v>353</v>
       </c>
@@ -22938,13 +22883,13 @@
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
       <c r="Y26" t="s">
         <v>353</v>
       </c>
@@ -22953,13 +22898,13 @@
       <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="11"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
       <c r="P27" t="s">
         <v>353</v>
       </c>
@@ -22980,13 +22925,13 @@
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" t="s">
         <v>353</v>
       </c>
@@ -23250,35 +23195,35 @@
       <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="T35" s="9" t="s">
+      <c r="T35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="11"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
       <c r="Y35" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="G36" t="s">
         <v>353</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="11"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
       <c r="P36" t="s">
         <v>353</v>
       </c>
@@ -23571,23 +23516,23 @@
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" t="s">
         <v>353</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
@@ -23655,13 +23600,13 @@
       <c r="O46" s="3">
         <v>10</v>
       </c>
-      <c r="T46" s="9" t="s">
+      <c r="T46" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="11"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="15"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
@@ -23872,13 +23817,13 @@
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
       <c r="G52" t="s">
         <v>353</v>
       </c>
@@ -24020,13 +23965,13 @@
       <c r="O56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T56" s="9" t="s">
+      <c r="T56" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="11"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="15"/>
       <c r="Y56" t="s">
         <v>353</v>
       </c>
@@ -24131,13 +24076,13 @@
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
       <c r="G60" t="s">
         <v>353</v>
       </c>
@@ -24237,13 +24182,13 @@
       <c r="F63" s="3">
         <v>50</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="11"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="15"/>
       <c r="P63" t="s">
         <v>353</v>
       </c>
@@ -24343,13 +24288,13 @@
       <c r="O66" s="3">
         <v>10</v>
       </c>
-      <c r="T66" s="9" t="s">
+      <c r="T66" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="11"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="15"/>
       <c r="Y66" t="s">
         <v>353</v>
       </c>
@@ -24390,13 +24335,13 @@
       </c>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
       <c r="G68" t="s">
         <v>353</v>
       </c>
@@ -24675,13 +24620,13 @@
       <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="15"/>
       <c r="P75" t="s">
         <v>353</v>
       </c>
@@ -24702,13 +24647,13 @@
       </c>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
       <c r="G76" t="s">
         <v>353</v>
       </c>
@@ -24885,13 +24830,13 @@
       <c r="O80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T80" s="9" t="s">
+      <c r="T80" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="11"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="15"/>
     </row>
     <row r="81" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
@@ -24946,13 +24891,13 @@
       </c>
     </row>
     <row r="83" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="K83" s="9" t="s">
+      <c r="K83" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="11"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="15"/>
       <c r="P83" t="s">
         <v>353</v>
       </c>
@@ -24973,13 +24918,13 @@
       </c>
     </row>
     <row r="84" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
       <c r="G84" t="s">
         <v>353</v>
       </c>
@@ -25253,13 +25198,13 @@
       <c r="F90" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K90" s="9" t="s">
+      <c r="K90" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="11"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="15"/>
       <c r="P90" t="s">
         <v>353</v>
       </c>
@@ -25300,25 +25245,25 @@
       <c r="O92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T92" s="9" t="s">
+      <c r="T92" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="11"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
       <c r="Y92" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
       <c r="G93" t="s">
         <v>353</v>
       </c>
@@ -25663,13 +25608,13 @@
       <c r="O102" s="3">
         <v>50</v>
       </c>
-      <c r="T102" s="9" t="s">
+      <c r="T102" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="11"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
       <c r="Y102" t="s">
         <v>353</v>
       </c>
@@ -25903,13 +25848,13 @@
       <c r="B109" t="s">
         <v>113</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="K109" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="11"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="15"/>
       <c r="T109" s="3" t="s">
         <v>11</v>
       </c>
@@ -26016,13 +25961,13 @@
       <c r="O112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T112" s="9" t="s">
+      <c r="T112" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="11"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="15"/>
       <c r="Y112" t="s">
         <v>353</v>
       </c>
@@ -26202,13 +26147,13 @@
       <c r="G118" t="s">
         <v>353</v>
       </c>
-      <c r="K118" s="9" t="s">
+      <c r="K118" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="11"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="15"/>
       <c r="P118" t="s">
         <v>353</v>
       </c>
@@ -26453,13 +26398,13 @@
       <c r="F127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K127" s="9" t="s">
+      <c r="K127" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="11"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+      <c r="O127" s="15"/>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B128" s="3" t="s">
@@ -26651,13 +26596,13 @@
       <c r="F136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K136" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="11"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="15"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B137" s="3" t="s">
@@ -26793,13 +26738,13 @@
       <c r="B144" t="s">
         <v>151</v>
       </c>
-      <c r="K144" s="9" t="s">
+      <c r="K144" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="11"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="15"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
@@ -26977,13 +26922,13 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K152" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
-      <c r="O152" s="11"/>
+      <c r="L152" s="14"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="15"/>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B153" s="4" t="s">
@@ -27161,13 +27106,13 @@
       <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="K160" s="9" t="s">
+      <c r="K160" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="10"/>
-      <c r="O160" s="11"/>
+      <c r="L160" s="14"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="15"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B161" s="4" t="s">
@@ -28851,19 +28796,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K144:O144"/>
-    <mergeCell ref="K152:O152"/>
-    <mergeCell ref="K160:O160"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="K127:O127"/>
-    <mergeCell ref="K136:O136"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="T56:X56"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="K118:O118"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="T92:X92"/>
+    <mergeCell ref="T102:X102"/>
+    <mergeCell ref="T112:X112"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="T66:X66"/>
+    <mergeCell ref="K90:O90"/>
+    <mergeCell ref="K83:O83"/>
+    <mergeCell ref="T80:X80"/>
     <mergeCell ref="T46:X46"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="B2:F2"/>
@@ -28878,18 +28822,19 @@
     <mergeCell ref="T26:X26"/>
     <mergeCell ref="T35:X35"/>
     <mergeCell ref="K44:O44"/>
-    <mergeCell ref="T56:X56"/>
-    <mergeCell ref="K109:O109"/>
-    <mergeCell ref="K118:O118"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="T92:X92"/>
-    <mergeCell ref="T102:X102"/>
-    <mergeCell ref="T112:X112"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="T66:X66"/>
-    <mergeCell ref="K90:O90"/>
-    <mergeCell ref="K83:O83"/>
-    <mergeCell ref="T80:X80"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="K36:O36"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="K152:O152"/>
+    <mergeCell ref="K160:O160"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="K75:O75"/>
+    <mergeCell ref="K127:O127"/>
+    <mergeCell ref="K136:O136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28928,13 +28873,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="K4" s="2" t="s">
@@ -29073,13 +29018,13 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="K14" s="4" t="s">
         <v>268</v>
       </c>
@@ -29266,13 +29211,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="K23" s="4" t="s">
         <v>269</v>
       </c>
@@ -30363,13 +30308,13 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="K72" s="9" t="s">
+      <c r="K72" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
@@ -30532,20 +30477,20 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="K80" s="9" t="s">
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="K80" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="15"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
@@ -30725,20 +30670,20 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="K89" s="9" t="s">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="K89" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="15"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
@@ -30986,20 +30931,20 @@
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="K102" s="9" t="s">
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="K102" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="11"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="15"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
@@ -31162,20 +31107,20 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="11"/>
-      <c r="K110" s="9" t="s">
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
+      <c r="K110" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="11"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="15"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
@@ -31372,20 +31317,20 @@
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="11"/>
-      <c r="K120" s="9" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="15"/>
+      <c r="K120" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="11"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="15"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B121" s="2" t="s">
@@ -31565,20 +31510,20 @@
       </c>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="11"/>
-      <c r="K129" s="9" t="s">
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="15"/>
+      <c r="K129" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="11"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+      <c r="O129" s="15"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
@@ -31758,20 +31703,20 @@
       </c>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="K138" s="9" t="s">
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="K138" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="11"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="15"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B139" s="2" t="s">
@@ -31951,20 +31896,20 @@
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="K147" s="9" t="s">
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="K147" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="11"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+      <c r="O147" s="15"/>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B148" s="2" t="s">
@@ -32127,20 +32072,20 @@
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="11"/>
-      <c r="K155" s="9" t="s">
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="15"/>
+      <c r="K155" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="11"/>
+      <c r="L155" s="14"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="14"/>
+      <c r="O155" s="15"/>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B156" s="2" t="s">
@@ -33026,13 +32971,13 @@
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="11"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="15"/>
       <c r="K197" s="4" t="s">
         <v>331</v>
       </c>
@@ -34046,13 +33991,13 @@
       </c>
     </row>
     <row r="254" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
       <c r="K254" s="4" t="s">
         <v>351</v>
       </c>
@@ -34477,13 +34422,13 @@
       </c>
     </row>
     <row r="278" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="10"/>
-      <c r="F278" s="11"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="15"/>
       <c r="K278" s="4" t="s">
         <v>362</v>
       </c>
@@ -35022,13 +34967,13 @@
       </c>
     </row>
     <row r="303" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="11"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="15"/>
       <c r="K303" s="4" t="s">
         <v>374</v>
       </c>
@@ -35567,13 +35512,13 @@
       </c>
     </row>
     <row r="328" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="11"/>
+      <c r="C328" s="14"/>
+      <c r="D328" s="14"/>
+      <c r="E328" s="14"/>
+      <c r="F328" s="15"/>
       <c r="K328" s="4" t="s">
         <v>383</v>
       </c>
@@ -36080,13 +36025,13 @@
       </c>
     </row>
     <row r="352" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C352" s="10"/>
-      <c r="D352" s="10"/>
-      <c r="E352" s="10"/>
-      <c r="F352" s="11"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="14"/>
+      <c r="F352" s="15"/>
       <c r="K352" s="4" t="s">
         <v>391</v>
       </c>
@@ -36593,29 +36538,29 @@
       </c>
     </row>
     <row r="375" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B375" s="14"/>
-      <c r="C375" s="14"/>
-      <c r="D375" s="14"/>
-      <c r="E375" s="14"/>
-      <c r="F375" s="14"/>
-      <c r="G375" s="14"/>
-      <c r="H375" s="14"/>
-      <c r="I375" s="14"/>
-      <c r="J375" s="14"/>
-      <c r="K375" s="14"/>
-      <c r="L375" s="14"/>
-      <c r="M375" s="14"/>
-      <c r="N375" s="14"/>
-      <c r="O375" s="14"/>
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+      <c r="L375" s="9"/>
+      <c r="M375" s="9"/>
+      <c r="N375" s="9"/>
+      <c r="O375" s="9"/>
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C376" s="10"/>
-      <c r="D376" s="10"/>
-      <c r="E376" s="10"/>
-      <c r="F376" s="11"/>
+      <c r="C376" s="14"/>
+      <c r="D376" s="14"/>
+      <c r="E376" s="14"/>
+      <c r="F376" s="15"/>
       <c r="K376" s="4" t="s">
         <v>407</v>
       </c>
@@ -37348,6 +37293,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="K155:O155"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="K138:O138"/>
     <mergeCell ref="B376:F376"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="K3:O3"/>
@@ -37364,19 +37322,6 @@
     <mergeCell ref="B110:F110"/>
     <mergeCell ref="K110:O110"/>
     <mergeCell ref="B120:F120"/>
-    <mergeCell ref="K120:O120"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="K129:O129"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="K138:O138"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="K147:O147"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="K155:O155"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B278:F278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37385,10 +37330,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7817DB2-39F5-448B-B4B5-837B004805D3}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B3:AP407"/>
+  <dimension ref="B3:AP401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC144" sqref="AC144"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37424,13 +37369,13 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
@@ -37516,7 +37461,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>23</v>
@@ -37542,7 +37487,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="3">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>3</v>
@@ -37774,7 +37719,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>63</v>
@@ -38107,13 +38052,13 @@
         <v>5</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X20" s="3">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>448</v>
@@ -38276,7 +38221,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>11</v>
@@ -38364,13 +38309,13 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
       <c r="AL25" s="3" t="s">
         <v>442</v>
       </c>
@@ -38458,19 +38403,19 @@
         <v>15</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="X27" s="3">
+        <v>15</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>26</v>
@@ -38527,19 +38472,19 @@
         <v>5</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>270</v>
+        <v>476</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X28" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AC28" s="3" t="s">
         <v>418</v>
@@ -38589,7 +38534,7 @@
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -38601,7 +38546,7 @@
         <v>7</v>
       </c>
       <c r="X29" s="3">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>442</v>
@@ -38651,19 +38596,19 @@
         <v>5</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X30" s="3">
-        <v>255</v>
+        <v>10</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>448</v>
@@ -38702,7 +38647,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="3">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>9</v>
@@ -38720,13 +38665,13 @@
         <v>5</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>10</v>
@@ -38794,21 +38739,6 @@
         <v>10</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC32" s="3" t="s">
@@ -39113,7 +39043,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>69</v>
@@ -39372,11 +39302,11 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
       <c r="T44" s="1" t="s">
         <v>267</v>
       </c>
@@ -39408,11 +39338,6 @@
       <c r="F45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
       <c r="T45" s="2" t="s">
         <v>26</v>
       </c>
@@ -39460,11 +39385,6 @@
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
       <c r="T46" s="3" t="s">
         <v>418</v>
       </c>
@@ -39519,11 +39439,6 @@
       <c r="F47" s="3">
         <v>50</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
       <c r="T47" s="3" t="s">
         <v>442</v>
       </c>
@@ -39586,11 +39501,6 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
       <c r="T48" s="3" t="s">
         <v>9</v>
       </c>
@@ -39653,11 +39563,6 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
@@ -39705,11 +39610,6 @@
       </c>
     </row>
     <row r="50" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
       <c r="AC50" s="3" t="s">
         <v>448</v>
       </c>
@@ -39742,11 +39642,6 @@
       </c>
     </row>
     <row r="51" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
       <c r="AC51" s="3" t="s">
         <v>451</v>
       </c>
@@ -39955,7 +39850,7 @@
         <v>309</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>4</v>
@@ -40017,7 +39912,7 @@
         <v>312</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>4</v>
@@ -40038,7 +39933,7 @@
         <v>7</v>
       </c>
       <c r="X56" s="3">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>462</v>
@@ -40304,13 +40199,13 @@
       <c r="F61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
       <c r="T61" s="3" t="s">
         <v>51</v>
       </c>
@@ -40324,7 +40219,7 @@
         <v>7</v>
       </c>
       <c r="X61" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AC61" s="3" t="s">
         <v>451</v>
@@ -40434,7 +40329,7 @@
         <v>270</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>7</v>
@@ -40511,7 +40406,7 @@
         <v>343</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>4</v>
@@ -40573,7 +40468,7 @@
         <v>270</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>7</v>
@@ -40801,7 +40696,7 @@
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
-        <v>303</v>
+        <v>475</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -40854,13 +40749,13 @@
       <c r="F71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="11"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="15"/>
       <c r="T71" s="3" t="s">
         <v>9</v>
       </c>
@@ -40994,7 +40889,7 @@
         <v>270</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>7</v>
@@ -41033,7 +40928,7 @@
         <v>315</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>4</v>
@@ -41072,7 +40967,7 @@
         <v>317</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
@@ -41119,7 +41014,7 @@
         <v>326</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>4</v>
@@ -41173,7 +41068,7 @@
         <v>328</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>4</v>
@@ -41495,7 +41390,7 @@
         <v>270</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>7</v>
@@ -41542,7 +41437,7 @@
         <v>335</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>4</v>
@@ -41589,7 +41484,7 @@
         <v>356</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>4</v>
@@ -41813,13 +41708,13 @@
       </c>
     </row>
     <row r="95" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="K95" s="9" t="s">
+      <c r="K95" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="11"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="15"/>
       <c r="T95" s="3" t="s">
         <v>9</v>
       </c>
@@ -41930,7 +41825,7 @@
         <v>270</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>7</v>
@@ -41962,7 +41857,7 @@
         <v>365</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>4</v>
@@ -42001,7 +41896,7 @@
         <v>367</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -42045,7 +41940,7 @@
         <v>149</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>19</v>
@@ -42238,11 +42133,6 @@
       <c r="F106" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T106" s="15"/>
-      <c r="U106" s="15"/>
-      <c r="V106" s="15"/>
-      <c r="W106" s="15"/>
-      <c r="X106" s="15"/>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B107" s="3" t="s">
@@ -42260,11 +42150,11 @@
       <c r="F107" s="3">
         <v>50</v>
       </c>
-      <c r="T107" s="16"/>
-      <c r="U107" s="16"/>
-      <c r="V107" s="16"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="16"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B108" s="3" t="s">
@@ -42282,13 +42172,13 @@
       <c r="F108" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K108" s="9" t="s">
+      <c r="K108" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="11"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="15"/>
       <c r="T108" s="4" t="s">
         <v>422</v>
       </c>
@@ -42349,7 +42239,7 @@
         <v>437</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>19</v>
@@ -42384,7 +42274,7 @@
         <v>378</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N111" s="3" t="s">
         <v>4</v>
@@ -42396,7 +42286,7 @@
         <v>189</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="V111" s="3" t="s">
         <v>19</v>
@@ -42423,7 +42313,7 @@
         <v>379</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N112" s="3" t="s">
         <v>4</v>
@@ -42647,16 +42537,11 @@
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
       <c r="T119" s="3" t="s">
         <v>99</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="V119" s="3" t="s">
         <v>19</v>
@@ -42676,13 +42561,13 @@
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="6"/>
-      <c r="K120" s="9" t="s">
+      <c r="K120" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="11"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="15"/>
       <c r="T120" s="3" t="s">
         <v>9</v>
       </c>
@@ -42769,7 +42654,7 @@
         <v>270</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N122" s="3" t="s">
         <v>7</v>
@@ -42801,7 +42686,7 @@
         <v>385</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>4</v>
@@ -42833,7 +42718,7 @@
         <v>386</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>4</v>
@@ -42933,7 +42818,7 @@
         <v>103</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>309</v>
+        <v>478</v>
       </c>
       <c r="V127" s="3" t="s">
         <v>19</v>
@@ -43017,13 +42902,13 @@
       <c r="F130" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K130" s="9" t="s">
+      <c r="K130" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="11"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="15"/>
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B131" s="3" t="s">
@@ -43080,7 +42965,7 @@
         <v>270</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N132" s="3" t="s">
         <v>7</v>
@@ -43119,7 +43004,7 @@
         <v>396</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N133" s="3" t="s">
         <v>4</v>
@@ -43151,7 +43036,7 @@
         <v>395</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N134" s="3" t="s">
         <v>4</v>
@@ -43176,11 +43061,11 @@
       </c>
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
       <c r="K135" s="3" t="s">
         <v>9</v>
       </c>
@@ -43348,13 +43233,13 @@
       <c r="F140" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="K140" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="11"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="15"/>
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B141" s="3" t="s">
@@ -43403,7 +43288,7 @@
         <v>270</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N142" s="3" t="s">
         <v>7</v>
@@ -43435,7 +43320,7 @@
         <v>439</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N143" s="3" t="s">
         <v>4</v>
@@ -43474,7 +43359,7 @@
         <v>440</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N144" s="3" t="s">
         <v>4</v>
@@ -43486,7 +43371,7 @@
         <v>189</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="V144" s="3" t="s">
         <v>19</v>
@@ -43756,7 +43641,7 @@
         <v>99</v>
       </c>
       <c r="U152" s="3" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="V152" s="3" t="s">
         <v>19</v>
@@ -43848,11 +43733,11 @@
       <c r="F155" s="3">
         <v>50</v>
       </c>
-      <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="16"/>
-      <c r="O155" s="16"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B156" s="3" t="s">
@@ -43887,11 +43772,6 @@
       <c r="F157" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-      <c r="N157" s="15"/>
-      <c r="O157" s="15"/>
       <c r="T157" s="4" t="s">
         <v>428</v>
       </c>
@@ -43901,11 +43781,6 @@
       <c r="X157" s="6"/>
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
       <c r="T158" s="2" t="s">
         <v>26</v>
       </c>
@@ -43951,7 +43826,7 @@
         <v>103</v>
       </c>
       <c r="U160" s="3" t="s">
-        <v>309</v>
+        <v>478</v>
       </c>
       <c r="V160" s="3" t="s">
         <v>19</v>
@@ -44627,783 +44502,149 @@
       </c>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-    </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B212" s="15"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-    </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-    </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B214" s="15"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-    </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K215" s="15"/>
-      <c r="L215" s="15"/>
-      <c r="M215" s="15"/>
-      <c r="N215" s="15"/>
-      <c r="O215" s="15"/>
-    </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K216" s="15"/>
-      <c r="L216" s="15"/>
-      <c r="M216" s="15"/>
-      <c r="N216" s="15"/>
-      <c r="O216" s="15"/>
-    </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K217" s="15"/>
-      <c r="L217" s="15"/>
-      <c r="M217" s="15"/>
-      <c r="N217" s="15"/>
-      <c r="O217" s="15"/>
-    </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K218" s="15"/>
-      <c r="L218" s="15"/>
-      <c r="M218" s="15"/>
-      <c r="N218" s="15"/>
-      <c r="O218" s="15"/>
-    </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K219" s="15"/>
-      <c r="L219" s="15"/>
-      <c r="M219" s="15"/>
-      <c r="N219" s="15"/>
-      <c r="O219" s="15"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
     </row>
     <row r="222" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K222" s="16"/>
-      <c r="L222" s="16"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="16"/>
-      <c r="O222" s="16"/>
-    </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K223" s="15"/>
-      <c r="L223" s="15"/>
-      <c r="M223" s="15"/>
-      <c r="N223" s="15"/>
-      <c r="O223" s="15"/>
-    </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K224" s="15"/>
-      <c r="L224" s="15"/>
-      <c r="M224" s="15"/>
-      <c r="N224" s="15"/>
-      <c r="O224" s="15"/>
-    </row>
-    <row r="225" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K225" s="15"/>
-      <c r="L225" s="15"/>
-      <c r="M225" s="15"/>
-      <c r="N225" s="15"/>
-      <c r="O225" s="15"/>
-    </row>
-    <row r="226" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K226" s="15"/>
-      <c r="L226" s="15"/>
-      <c r="M226" s="15"/>
-      <c r="N226" s="15"/>
-      <c r="O226" s="15"/>
-    </row>
-    <row r="235" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K235" s="15"/>
-      <c r="L235" s="15"/>
-      <c r="M235" s="15"/>
-      <c r="N235" s="15"/>
-      <c r="O235" s="15"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
     </row>
     <row r="239" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K239" s="17"/>
-      <c r="L239" s="17"/>
-      <c r="M239" s="17"/>
-      <c r="N239" s="17"/>
-      <c r="O239" s="17"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="11"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="11"/>
+      <c r="O239" s="11"/>
     </row>
     <row r="240" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K240" s="17"/>
-      <c r="L240" s="17"/>
-      <c r="M240" s="17"/>
-      <c r="N240" s="17"/>
-      <c r="O240" s="17"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="11"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="11"/>
+      <c r="O240" s="11"/>
     </row>
     <row r="241" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K241" s="17"/>
-      <c r="L241" s="17"/>
-      <c r="M241" s="17"/>
-      <c r="N241" s="17"/>
-      <c r="O241" s="17"/>
-    </row>
-    <row r="304" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K304" s="15"/>
-      <c r="L304" s="15"/>
-      <c r="M304" s="15"/>
-      <c r="N304" s="15"/>
-      <c r="O304" s="15"/>
-    </row>
-    <row r="305" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K305" s="15"/>
-      <c r="L305" s="15"/>
-      <c r="M305" s="15"/>
-      <c r="N305" s="15"/>
-      <c r="O305" s="15"/>
-    </row>
-    <row r="306" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K306" s="15"/>
-      <c r="L306" s="15"/>
-      <c r="M306" s="15"/>
-      <c r="N306" s="15"/>
-      <c r="O306" s="15"/>
-    </row>
-    <row r="307" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K307" s="15"/>
-      <c r="L307" s="15"/>
-      <c r="M307" s="15"/>
-      <c r="N307" s="15"/>
-      <c r="O307" s="15"/>
-    </row>
-    <row r="308" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K308" s="15"/>
-      <c r="L308" s="15"/>
-      <c r="M308" s="15"/>
-      <c r="N308" s="15"/>
-      <c r="O308" s="15"/>
-    </row>
-    <row r="309" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K309" s="15"/>
-      <c r="L309" s="15"/>
-      <c r="M309" s="15"/>
-      <c r="N309" s="15"/>
-      <c r="O309" s="15"/>
-    </row>
-    <row r="310" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K310" s="15"/>
-      <c r="L310" s="15"/>
-      <c r="M310" s="15"/>
-      <c r="N310" s="15"/>
-      <c r="O310" s="15"/>
-    </row>
-    <row r="311" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K311" s="15"/>
-      <c r="L311" s="15"/>
-      <c r="M311" s="15"/>
-      <c r="N311" s="15"/>
-      <c r="O311" s="15"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="11"/>
+      <c r="M241" s="11"/>
+      <c r="N241" s="11"/>
+      <c r="O241" s="11"/>
     </row>
     <row r="312" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K312" s="16"/>
-      <c r="L312" s="16"/>
-      <c r="M312" s="16"/>
-      <c r="N312" s="16"/>
-      <c r="O312" s="16"/>
+      <c r="K312" s="10"/>
+      <c r="L312" s="10"/>
+      <c r="M312" s="10"/>
+      <c r="N312" s="10"/>
+      <c r="O312" s="10"/>
     </row>
     <row r="328" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K328" s="16"/>
-      <c r="L328" s="16"/>
-      <c r="M328" s="16"/>
-      <c r="N328" s="16"/>
-      <c r="O328" s="16"/>
-    </row>
-    <row r="329" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K329" s="15"/>
-      <c r="L329" s="15"/>
-      <c r="M329" s="15"/>
-      <c r="N329" s="15"/>
-      <c r="O329" s="15"/>
-    </row>
-    <row r="330" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K330" s="15"/>
-      <c r="L330" s="15"/>
-      <c r="M330" s="15"/>
-      <c r="N330" s="15"/>
-      <c r="O330" s="15"/>
-    </row>
-    <row r="331" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K331" s="15"/>
-      <c r="L331" s="15"/>
-      <c r="M331" s="15"/>
-      <c r="N331" s="15"/>
-      <c r="O331" s="15"/>
-    </row>
-    <row r="332" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K332" s="15"/>
-      <c r="L332" s="15"/>
-      <c r="M332" s="15"/>
-      <c r="N332" s="15"/>
-      <c r="O332" s="15"/>
-    </row>
-    <row r="333" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K333" s="15"/>
-      <c r="L333" s="15"/>
-      <c r="M333" s="15"/>
-      <c r="N333" s="15"/>
-      <c r="O333" s="15"/>
-    </row>
-    <row r="334" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K334" s="15"/>
-      <c r="L334" s="15"/>
-      <c r="M334" s="15"/>
-      <c r="N334" s="15"/>
-      <c r="O334" s="15"/>
-    </row>
-    <row r="335" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K335" s="15"/>
-      <c r="L335" s="15"/>
-      <c r="M335" s="15"/>
-      <c r="N335" s="15"/>
-      <c r="O335" s="15"/>
+      <c r="K328" s="10"/>
+      <c r="L328" s="10"/>
+      <c r="M328" s="10"/>
+      <c r="N328" s="10"/>
+      <c r="O328" s="10"/>
     </row>
     <row r="336" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K336" s="16"/>
-      <c r="L336" s="16"/>
-      <c r="M336" s="16"/>
-      <c r="N336" s="16"/>
-      <c r="O336" s="16"/>
-    </row>
-    <row r="337" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K337" s="15"/>
-      <c r="L337" s="15"/>
-      <c r="M337" s="15"/>
-      <c r="N337" s="15"/>
-      <c r="O337" s="15"/>
-    </row>
-    <row r="338" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K338" s="15"/>
-      <c r="L338" s="15"/>
-      <c r="M338" s="15"/>
-      <c r="N338" s="15"/>
-      <c r="O338" s="15"/>
-    </row>
-    <row r="339" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K339" s="15"/>
-      <c r="L339" s="15"/>
-      <c r="M339" s="15"/>
-      <c r="N339" s="15"/>
-      <c r="O339" s="15"/>
-    </row>
-    <row r="340" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K340" s="15"/>
-      <c r="L340" s="15"/>
-      <c r="M340" s="15"/>
-      <c r="N340" s="15"/>
-      <c r="O340" s="15"/>
-    </row>
-    <row r="341" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K341" s="15"/>
-      <c r="L341" s="15"/>
-      <c r="M341" s="15"/>
-      <c r="N341" s="15"/>
-      <c r="O341" s="15"/>
-    </row>
-    <row r="342" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K342" s="15"/>
-      <c r="L342" s="15"/>
-      <c r="M342" s="15"/>
-      <c r="N342" s="15"/>
-      <c r="O342" s="15"/>
-    </row>
-    <row r="343" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K343" s="15"/>
-      <c r="L343" s="15"/>
-      <c r="M343" s="15"/>
-      <c r="N343" s="15"/>
-      <c r="O343" s="15"/>
+      <c r="K336" s="10"/>
+      <c r="L336" s="10"/>
+      <c r="M336" s="10"/>
+      <c r="N336" s="10"/>
+      <c r="O336" s="10"/>
     </row>
     <row r="344" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K344" s="16"/>
-      <c r="L344" s="16"/>
-      <c r="M344" s="16"/>
-      <c r="N344" s="16"/>
-      <c r="O344" s="16"/>
-    </row>
-    <row r="345" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K345" s="15"/>
-      <c r="L345" s="15"/>
-      <c r="M345" s="15"/>
-      <c r="N345" s="15"/>
-      <c r="O345" s="15"/>
-    </row>
-    <row r="346" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K346" s="15"/>
-      <c r="L346" s="15"/>
-      <c r="M346" s="15"/>
-      <c r="N346" s="15"/>
-      <c r="O346" s="15"/>
-    </row>
-    <row r="347" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K347" s="15"/>
-      <c r="L347" s="15"/>
-      <c r="M347" s="15"/>
-      <c r="N347" s="15"/>
-      <c r="O347" s="15"/>
-    </row>
-    <row r="348" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K348" s="15"/>
-      <c r="L348" s="15"/>
-      <c r="M348" s="15"/>
-      <c r="N348" s="15"/>
-      <c r="O348" s="15"/>
-    </row>
-    <row r="349" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K349" s="15"/>
-      <c r="L349" s="15"/>
-      <c r="M349" s="15"/>
-      <c r="N349" s="15"/>
-      <c r="O349" s="15"/>
+      <c r="K344" s="10"/>
+      <c r="L344" s="10"/>
+      <c r="M344" s="10"/>
+      <c r="N344" s="10"/>
+      <c r="O344" s="10"/>
     </row>
     <row r="352" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K352" s="16"/>
-      <c r="L352" s="16"/>
-      <c r="M352" s="16"/>
-      <c r="N352" s="16"/>
-      <c r="O352" s="16"/>
-    </row>
-    <row r="353" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K353" s="15"/>
-      <c r="L353" s="15"/>
-      <c r="M353" s="15"/>
-      <c r="N353" s="15"/>
-      <c r="O353" s="15"/>
-    </row>
-    <row r="354" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K354" s="15"/>
-      <c r="L354" s="15"/>
-      <c r="M354" s="15"/>
-      <c r="N354" s="15"/>
-      <c r="O354" s="15"/>
-    </row>
-    <row r="355" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K355" s="15"/>
-      <c r="L355" s="15"/>
-      <c r="M355" s="15"/>
-      <c r="N355" s="15"/>
-      <c r="O355" s="15"/>
-    </row>
-    <row r="356" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K356" s="15"/>
-      <c r="L356" s="15"/>
-      <c r="M356" s="15"/>
-      <c r="N356" s="15"/>
-      <c r="O356" s="15"/>
-    </row>
-    <row r="357" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K357" s="15"/>
-      <c r="L357" s="15"/>
-      <c r="M357" s="15"/>
-      <c r="N357" s="15"/>
-      <c r="O357" s="15"/>
-    </row>
-    <row r="358" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K358" s="15"/>
-      <c r="L358" s="15"/>
-      <c r="M358" s="15"/>
-      <c r="N358" s="15"/>
-      <c r="O358" s="15"/>
-    </row>
-    <row r="359" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K359" s="15"/>
-      <c r="L359" s="15"/>
-      <c r="M359" s="15"/>
-      <c r="N359" s="15"/>
-      <c r="O359" s="15"/>
+      <c r="K352" s="10"/>
+      <c r="L352" s="10"/>
+      <c r="M352" s="10"/>
+      <c r="N352" s="10"/>
+      <c r="O352" s="10"/>
     </row>
     <row r="360" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K360" s="16"/>
-      <c r="L360" s="16"/>
-      <c r="M360" s="16"/>
-      <c r="N360" s="16"/>
-      <c r="O360" s="16"/>
-    </row>
-    <row r="361" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K361" s="15"/>
-      <c r="L361" s="15"/>
-      <c r="M361" s="15"/>
-      <c r="N361" s="15"/>
-      <c r="O361" s="15"/>
-    </row>
-    <row r="362" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K362" s="15"/>
-      <c r="L362" s="15"/>
-      <c r="M362" s="15"/>
-      <c r="N362" s="15"/>
-      <c r="O362" s="15"/>
-    </row>
-    <row r="363" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K363" s="15"/>
-      <c r="L363" s="15"/>
-      <c r="M363" s="15"/>
-      <c r="N363" s="15"/>
-      <c r="O363" s="15"/>
-    </row>
-    <row r="364" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K364" s="15"/>
-      <c r="L364" s="15"/>
-      <c r="M364" s="15"/>
-      <c r="N364" s="15"/>
-      <c r="O364" s="15"/>
-    </row>
-    <row r="365" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K365" s="15"/>
-      <c r="L365" s="15"/>
-      <c r="M365" s="15"/>
-      <c r="N365" s="15"/>
-      <c r="O365" s="15"/>
-    </row>
-    <row r="366" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K366" s="15"/>
-      <c r="L366" s="15"/>
-      <c r="M366" s="15"/>
-      <c r="N366" s="15"/>
-      <c r="O366" s="15"/>
-    </row>
-    <row r="367" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K367" s="15"/>
-      <c r="L367" s="15"/>
-      <c r="M367" s="15"/>
-      <c r="N367" s="15"/>
-      <c r="O367" s="15"/>
+      <c r="K360" s="10"/>
+      <c r="L360" s="10"/>
+      <c r="M360" s="10"/>
+      <c r="N360" s="10"/>
+      <c r="O360" s="10"/>
     </row>
     <row r="368" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K368" s="16"/>
-      <c r="L368" s="16"/>
-      <c r="M368" s="16"/>
-      <c r="N368" s="16"/>
-      <c r="O368" s="16"/>
-    </row>
-    <row r="369" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K369" s="15"/>
-      <c r="L369" s="15"/>
-      <c r="M369" s="15"/>
-      <c r="N369" s="15"/>
-      <c r="O369" s="15"/>
-    </row>
-    <row r="370" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K370" s="15"/>
-      <c r="L370" s="15"/>
-      <c r="M370" s="15"/>
-      <c r="N370" s="15"/>
-      <c r="O370" s="15"/>
-    </row>
-    <row r="371" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K371" s="15"/>
-      <c r="L371" s="15"/>
-      <c r="M371" s="15"/>
-      <c r="N371" s="15"/>
-      <c r="O371" s="15"/>
-    </row>
-    <row r="372" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K372" s="15"/>
-      <c r="L372" s="15"/>
-      <c r="M372" s="15"/>
-      <c r="N372" s="15"/>
-      <c r="O372" s="15"/>
-    </row>
-    <row r="373" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K373" s="15"/>
-      <c r="L373" s="15"/>
-      <c r="M373" s="15"/>
-      <c r="N373" s="15"/>
-      <c r="O373" s="15"/>
+      <c r="K368" s="10"/>
+      <c r="L368" s="10"/>
+      <c r="M368" s="10"/>
+      <c r="N368" s="10"/>
+      <c r="O368" s="10"/>
     </row>
     <row r="375" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B375" s="18"/>
-      <c r="C375" s="18"/>
-      <c r="D375" s="18"/>
-      <c r="E375" s="18"/>
-      <c r="F375" s="18"/>
-      <c r="G375" s="18"/>
-      <c r="H375" s="18"/>
-      <c r="I375" s="18"/>
-      <c r="J375" s="18"/>
-      <c r="K375" s="18"/>
-      <c r="L375" s="18"/>
-      <c r="M375" s="18"/>
-      <c r="N375" s="18"/>
-      <c r="O375" s="18"/>
+      <c r="B375" s="12"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="12"/>
+      <c r="H375" s="12"/>
+      <c r="I375" s="12"/>
+      <c r="J375" s="12"/>
+      <c r="K375" s="12"/>
+      <c r="L375" s="12"/>
+      <c r="M375" s="12"/>
+      <c r="N375" s="12"/>
+      <c r="O375" s="12"/>
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K376" s="16"/>
-      <c r="L376" s="16"/>
-      <c r="M376" s="16"/>
-      <c r="N376" s="16"/>
-      <c r="O376" s="16"/>
-    </row>
-    <row r="377" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K377" s="15"/>
-      <c r="L377" s="15"/>
-      <c r="M377" s="15"/>
-      <c r="N377" s="15"/>
-      <c r="O377" s="15"/>
-    </row>
-    <row r="378" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K378" s="15"/>
-      <c r="L378" s="15"/>
-      <c r="M378" s="15"/>
-      <c r="N378" s="15"/>
-      <c r="O378" s="15"/>
-    </row>
-    <row r="379" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K379" s="15"/>
-      <c r="L379" s="15"/>
-      <c r="M379" s="15"/>
-      <c r="N379" s="15"/>
-      <c r="O379" s="15"/>
-    </row>
-    <row r="380" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K380" s="15"/>
-      <c r="L380" s="15"/>
-      <c r="M380" s="15"/>
-      <c r="N380" s="15"/>
-      <c r="O380" s="15"/>
-    </row>
-    <row r="381" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K381" s="15"/>
-      <c r="L381" s="15"/>
-      <c r="M381" s="15"/>
-      <c r="N381" s="15"/>
-      <c r="O381" s="15"/>
-    </row>
-    <row r="382" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K382" s="15"/>
-      <c r="L382" s="15"/>
-      <c r="M382" s="15"/>
-      <c r="N382" s="15"/>
-      <c r="O382" s="15"/>
-    </row>
-    <row r="383" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K383" s="15"/>
-      <c r="L383" s="15"/>
-      <c r="M383" s="15"/>
-      <c r="N383" s="15"/>
-      <c r="O383" s="15"/>
-    </row>
-    <row r="384" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="K384" s="15"/>
-      <c r="L384" s="15"/>
-      <c r="M384" s="15"/>
-      <c r="N384" s="15"/>
-      <c r="O384" s="15"/>
+      <c r="K376" s="10"/>
+      <c r="L376" s="10"/>
+      <c r="M376" s="10"/>
+      <c r="N376" s="10"/>
+      <c r="O376" s="10"/>
     </row>
     <row r="385" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K385" s="16"/>
-      <c r="L385" s="16"/>
-      <c r="M385" s="16"/>
-      <c r="N385" s="16"/>
-      <c r="O385" s="16"/>
-    </row>
-    <row r="386" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K386" s="15"/>
-      <c r="L386" s="15"/>
-      <c r="M386" s="15"/>
-      <c r="N386" s="15"/>
-      <c r="O386" s="15"/>
-    </row>
-    <row r="387" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K387" s="15"/>
-      <c r="L387" s="15"/>
-      <c r="M387" s="15"/>
-      <c r="N387" s="15"/>
-      <c r="O387" s="15"/>
-    </row>
-    <row r="388" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K388" s="15"/>
-      <c r="L388" s="15"/>
-      <c r="M388" s="15"/>
-      <c r="N388" s="15"/>
-      <c r="O388" s="15"/>
-    </row>
-    <row r="389" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K389" s="15"/>
-      <c r="L389" s="15"/>
-      <c r="M389" s="15"/>
-      <c r="N389" s="15"/>
-      <c r="O389" s="15"/>
-    </row>
-    <row r="390" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K390" s="15"/>
-      <c r="L390" s="15"/>
-      <c r="M390" s="15"/>
-      <c r="N390" s="15"/>
-      <c r="O390" s="15"/>
-    </row>
-    <row r="391" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K391" s="15"/>
-      <c r="L391" s="15"/>
-      <c r="M391" s="15"/>
-      <c r="N391" s="15"/>
-      <c r="O391" s="15"/>
-    </row>
-    <row r="392" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K392" s="15"/>
-      <c r="L392" s="15"/>
-      <c r="M392" s="15"/>
-      <c r="N392" s="15"/>
-      <c r="O392" s="15"/>
+      <c r="K385" s="10"/>
+      <c r="L385" s="10"/>
+      <c r="M385" s="10"/>
+      <c r="N385" s="10"/>
+      <c r="O385" s="10"/>
     </row>
     <row r="393" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K393" s="16"/>
-      <c r="L393" s="16"/>
-      <c r="M393" s="16"/>
-      <c r="N393" s="16"/>
-      <c r="O393" s="16"/>
-    </row>
-    <row r="394" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K394" s="15"/>
-      <c r="L394" s="15"/>
-      <c r="M394" s="15"/>
-      <c r="N394" s="15"/>
-      <c r="O394" s="15"/>
-    </row>
-    <row r="395" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K395" s="15"/>
-      <c r="L395" s="15"/>
-      <c r="M395" s="15"/>
-      <c r="N395" s="15"/>
-      <c r="O395" s="15"/>
-    </row>
-    <row r="396" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K396" s="15"/>
-      <c r="L396" s="15"/>
-      <c r="M396" s="15"/>
-      <c r="N396" s="15"/>
-      <c r="O396" s="15"/>
-    </row>
-    <row r="397" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K397" s="15"/>
-      <c r="L397" s="15"/>
-      <c r="M397" s="15"/>
-      <c r="N397" s="15"/>
-      <c r="O397" s="15"/>
-    </row>
-    <row r="398" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K398" s="15"/>
-      <c r="L398" s="15"/>
-      <c r="M398" s="15"/>
-      <c r="N398" s="15"/>
-      <c r="O398" s="15"/>
-    </row>
-    <row r="399" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K399" s="15"/>
-      <c r="L399" s="15"/>
-      <c r="M399" s="15"/>
-      <c r="N399" s="15"/>
-      <c r="O399" s="15"/>
-    </row>
-    <row r="400" spans="11:15" x14ac:dyDescent="0.15">
-      <c r="K400" s="15"/>
-      <c r="L400" s="15"/>
-      <c r="M400" s="15"/>
-      <c r="N400" s="15"/>
-      <c r="O400" s="15"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
+      <c r="N393" s="10"/>
+      <c r="O393" s="10"/>
     </row>
     <row r="401" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B401" s="16"/>
-      <c r="C401" s="16"/>
-      <c r="D401" s="16"/>
-      <c r="E401" s="16"/>
-      <c r="F401" s="16"/>
-      <c r="K401" s="16"/>
-      <c r="L401" s="16"/>
-      <c r="M401" s="16"/>
-      <c r="N401" s="16"/>
-      <c r="O401" s="16"/>
-    </row>
-    <row r="402" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B402" s="15"/>
-      <c r="C402" s="15"/>
-      <c r="D402" s="15"/>
-      <c r="E402" s="15"/>
-      <c r="F402" s="15"/>
-      <c r="K402" s="15"/>
-      <c r="L402" s="15"/>
-      <c r="M402" s="15"/>
-      <c r="N402" s="15"/>
-      <c r="O402" s="15"/>
-    </row>
-    <row r="403" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B403" s="15"/>
-      <c r="C403" s="15"/>
-      <c r="D403" s="15"/>
-      <c r="E403" s="15"/>
-      <c r="F403" s="15"/>
-      <c r="K403" s="15"/>
-      <c r="L403" s="15"/>
-      <c r="M403" s="15"/>
-      <c r="N403" s="15"/>
-      <c r="O403" s="15"/>
-    </row>
-    <row r="404" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B404" s="15"/>
-      <c r="C404" s="15"/>
-      <c r="D404" s="15"/>
-      <c r="E404" s="15"/>
-      <c r="F404" s="15"/>
-      <c r="K404" s="15"/>
-      <c r="L404" s="15"/>
-      <c r="M404" s="15"/>
-      <c r="N404" s="15"/>
-      <c r="O404" s="15"/>
-    </row>
-    <row r="405" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B405" s="15"/>
-      <c r="C405" s="15"/>
-      <c r="D405" s="15"/>
-      <c r="E405" s="15"/>
-      <c r="F405" s="15"/>
-      <c r="K405" s="15"/>
-      <c r="L405" s="15"/>
-      <c r="M405" s="15"/>
-      <c r="N405" s="15"/>
-      <c r="O405" s="15"/>
-    </row>
-    <row r="406" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B406" s="15"/>
-      <c r="C406" s="15"/>
-      <c r="D406" s="15"/>
-      <c r="E406" s="15"/>
-      <c r="F406" s="15"/>
-      <c r="K406" s="15"/>
-      <c r="L406" s="15"/>
-      <c r="M406" s="15"/>
-      <c r="N406" s="15"/>
-      <c r="O406" s="15"/>
-    </row>
-    <row r="407" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B407" s="15"/>
-      <c r="C407" s="15"/>
-      <c r="D407" s="15"/>
-      <c r="E407" s="15"/>
-      <c r="F407" s="15"/>
+      <c r="B401" s="10"/>
+      <c r="C401" s="10"/>
+      <c r="D401" s="10"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
+      <c r="K401" s="10"/>
+      <c r="L401" s="10"/>
+      <c r="M401" s="10"/>
+      <c r="N401" s="10"/>
+      <c r="O401" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="T25:X25"/>
     <mergeCell ref="K95:O95"/>
     <mergeCell ref="K108:O108"/>
     <mergeCell ref="K120:O120"/>
     <mergeCell ref="K130:O130"/>
     <mergeCell ref="K140:O140"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K71:O71"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="T25:X25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
